--- a/entrance_exam_database.xlsx
+++ b/entrance_exam_database.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="開成中学校" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="渋谷教育学園渋谷中学校" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="武蔵中学校" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,48 +491,744 @@
           <t>記述_問題数</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>記号選択_問題数</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>その他_問題数</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>2025</v>
       </c>
       <c r="B2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21853</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>小説・物語</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ああ、こんにちは</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>と応じた」とありますが、本文において田所さんはどのような人物として￹描￺えが￻かれて</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>22635</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>年度</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>総設問数</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>総文字数</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>大問数</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_ジャンル</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_テーマ</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_著者</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_作品</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_設問数</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_文字数</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>記述_問題数</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>記号選択_問題数</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>その他_問題数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4578</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>小説・物語</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>パパラギ</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4786</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>年度</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>総設問数</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>総文字数</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>大問数</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_ジャンル</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_テーマ</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_著者</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_作品</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_設問数</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_文字数</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>記述_問題数</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>抜き出し_問題数</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>その他_問題数</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>記号選択_問題数</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>漢字・語句_問題数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7786</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>小説・物語</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>太郎君</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>と呼んでいた。</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8118</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7732</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>小説・物語</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>社会・文化</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>和の思想</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>という文章の一部です。これらを読んであとの質問に答えなさい。</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8036</v>
+      </c>
+      <c r="K3" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>9403</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6375</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>小説・物語</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>一般</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>古内一絵</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>百年の子</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ぼく</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>と小学四年生の「弟」は、父の死後、旅館に住み込みで働き続ける母の稼</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6664</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7640</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>小説・物語</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>一般</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ふだんよく手にしていたものはありませんか？</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ってきかれたから、てきとうに選んだだけ」</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7952</v>
+      </c>
+      <c r="K5" t="n">
         <v>5</v>
       </c>
-      <c r="J2" t="n">
-        <v>9403</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12337</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>小説・物語</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>科学・技術</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ロボットが人間の仕事を奪う</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>「人間はロボットに支配される」といったタイトルの本や記事が、近年では少なくない。近い将</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12850</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18450</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>小説・物語</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>人間関係・成長</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>その日のまえに</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>っていうんだ。すげえよかった」</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>17</v>
+      </c>
+      <c r="J7" t="n">
+        <v>19182</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8448</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>小説・物語</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>社会・文化</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>食べる
+ことと出すこと</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>です。</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8799</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8915</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>小説・物語</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>自然・環境</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>随筆と小品</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>昭和十四年刊による。かなづかいと漢字表記は改めたが、表現については原文</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9261</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7667</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>小説・物語</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>自然・環境</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>と思う</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>は学問する人の態度をもって語られている」とあるが、どういうことですか。</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7923</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/entrance_exam_database.xlsx
+++ b/entrance_exam_database.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="武蔵中学校" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="テスト中学校" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="開成中学校" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="桜蔭中学校" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="渋谷教育学園渋谷中学校" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1002,4 +1006,2326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>年度</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>総設問数</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>総文字数</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>大問数</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_ジャンル</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_テーマ</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_著者</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_作品</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_設問数</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_文字数</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>記述_問題数</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>選択_問題数</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>更新日時</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>作者</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>作品</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2025-08-06 17:33:41</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CZ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>年度</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>総設問数</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>総文字数</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>大問数</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_ジャンル</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_テーマ</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_著者</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_作品</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_設問数</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_文字数</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_ジャンル</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_テーマ</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_著者</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_作品</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_設問数</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_文字数</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_ジャンル</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_テーマ</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_著者</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_作品</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_設問数</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_文字数</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_ジャンル</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_テーマ</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_著者</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_作品</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_設問数</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_文字数</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_ジャンル</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_テーマ</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_著者</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_作品</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_設問数</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_文字数</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_ジャンル</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_テーマ</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_著者</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_作品</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_設問数</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_文字数</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>記述_問題数</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>選択_問題数</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>漢字・語句_問題数</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>抜き出し_問題数</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>更新日時</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>分析日</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_出版社</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_内容要約</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_出題形式</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_特殊要素</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_出版社</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_内容要約</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_出題形式</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_特殊要素</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_出版社</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_内容要約</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_出題形式</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_特殊要素</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_出版社</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_内容要約</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_出題形式</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_特殊要素</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_出版社</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_内容要約</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_出題形式</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_特殊要素</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_出版社</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_内容要約</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_出題形式</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_特殊要素</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>漢字_問題数</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>語句_問題数</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>文法_問題数</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>脱文挿入_問題数</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>並び替え_問題数</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>空欄補充_問題数</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>要約_問題数</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>作文_問題数</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>その他_問題数</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>記述_最大字数</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>記述_最小字数</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>選択肢_最大数</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>図表_使用有無</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>詩歌_有無</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>古文_有無</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>漢文_有無</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>出題傾向</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>特記事項</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>OCRファイル名</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_内容概要</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_設問詳細</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_内容概要</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_設問詳細</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_内容概要</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_設問詳細</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_内容概要</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_設問詳細</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_内容概要</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_設問詳細</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_内容概要</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_設問詳細</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>記述_字数指定あり</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>記述_字数指定なし</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7773</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>小説・物語</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>児童文学論・戦後文学</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>古内一絵</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>百年の子</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4500</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>随筆</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>コミュニケーション論・言語哲学</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>永井玲衣</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>世界の適切な保存</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3273</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>2025-08-06 17:43:46</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>2025-08-06 18:59:47</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>出版社で学年誌を担当する野山彬が、児童文学作家の佐野三津彦から児童文学の本質について話を聞く場面。戦災孤児だった三津彦の体験を通じて、子どもの人権の歴史と児童文学の役割について論じる。</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>「伝わらない」ということの本質について、大学でのシンポジウムや日常的な場面を例に考察。言語の限界と、それでも伝えようとする人間の営みについて哲学的に論じる。</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>文学的文章（小説）と論理的文章（随筆）のバランス型出題。現代文学から2作品を選定。社会的テーマ（児童文学、コミュニケーション）を扱った作品。記述問題中心の出題形式。</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>2025年度開成中学校入試問題。傍線部の意味を問う問題が中心。</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>25開成.txt</t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>出版社で学年誌を担当する野山彬が、児童文学作家の佐野三津彦から児童文学の本質について話を聞く場面。戦災孤児だった三津彦の体験を通じて、子どもの人権の歴史と児童文学の役割について語られる。</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>問一:「それが児童文学の仕事だ」について三津彦の考えを説明、問二:「二重に捨てられた気分」の意味を説明、問三:「ああいう誠実さ」の内容を説明</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>「伝わらない」ということの本質について、大学でのシンポジウムや日常的な場面を例に考察。言語の限界と、それでも伝えようとする人間の営みについて哲学的に論じている。</t>
+        </is>
+      </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>漢字問題、「伝わらないことが喜劇である」理由の説明、魚と人間の対比についての説明</t>
+        </is>
+      </c>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CV2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>年度</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>分析日</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>総文字数</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>大問数</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>総設問数</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_ジャンル</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_テーマ</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_著者</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_作品</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_出版社</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_文字数</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_設問数</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_内容要約</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_出題形式</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_特殊要素</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_ジャンル</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_テーマ</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_著者</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_作品</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_出版社</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_文字数</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_設問数</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_内容要約</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_出題形式</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_特殊要素</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_ジャンル</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_テーマ</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_著者</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_作品</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_出版社</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_文字数</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_設問数</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_内容要約</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_出題形式</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_特殊要素</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_ジャンル</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_テーマ</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_著者</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_作品</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_出版社</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_文字数</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_設問数</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_内容要約</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_出題形式</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_特殊要素</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_ジャンル</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_テーマ</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_著者</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_作品</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_出版社</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_文字数</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_設問数</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_内容要約</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_出題形式</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_特殊要素</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_ジャンル</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_テーマ</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_著者</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_作品</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_出版社</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_文字数</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_設問数</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_内容要約</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_出題形式</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_特殊要素</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>記述_問題数</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>記述_字数指定あり</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>記述_字数指定なし</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>選択_問題数</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>抜き出し_問題数</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>漢字_問題数</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>語句_問題数</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>文法_問題数</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>脱文挿入_問題数</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>並び替え_問題数</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>空欄補充_問題数</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>要約_問題数</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>作文_問題数</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>その他_問題数</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>記述_最大字数</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>記述_最小字数</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>選択肢_最大数</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>図表_使用有無</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>詩歌_有無</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>出題傾向</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>特記事項</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>OCRファイル名</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_内容概要</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_設問詳細</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_内容概要</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_設問詳細</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_内容概要</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_設問詳細</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_内容概要</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_設問詳細</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_内容概要</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_設問詳細</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_内容概要</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_設問詳細</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-08-06 18:59:47</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8303</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>説明文</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>科学・技術／人間とロボットの協働</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>小説・物語</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>人間関係・成長／異文化理解</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>植松三十里</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>イザベラ・バードと侍ボーイ</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>4303</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>説明的文章（科学技術）と文学的文章（歴史小説）のバランス型出題。現代的テーマ（AI・ロボット）と歴史的テーマ（明治時代）の組み合わせ。人間の協働・相互理解をテーマとした作品選定。</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>2025年度桜蔭中学校入試問題。記述問題が全体の約64%（7問/11問）を占める。具体例から抽象的概念を読み取る高度な読解力を要求。</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>25桜蔭.txt</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>子どもたちと協力してゴミを集める「ゴミ箱ロボット」の実験を通じて、完全ではないロボットが人間の助けを引き出すことで機能を果たす「しなやかなシステム」について論じる。「注文をまちがえる料理店」やハサミなどの具体例も交えて説明。</t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>問一:四字熟語の完成（漢字・語句）、問二:空欄補充（選択）、問三:ゴミ箱ロボットと通常のゴミ箱の違いを説明（記述）、問四:「しなやかな強さ」と「脆さ」の対照について説明（記述）、問五:具体例に共通する考え方を説明（記述）、問六:童話との関連について説明（記述）</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>明治時代の日本を旅するイギリス人女性イザベラ・バードと、彼女の通訳を務める青年・鶴吉の物語。村人たちとの交流や、イザベラの旅の目的を巡る二人の対話を通じて、異文化理解と人間観察の意味を描く。</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>問一:カタカナを漢字に直す（漢字・語句）、問二:空欄に入る漢字一字（漢字・語句）、問三:鶴吉が「なおさら癪にさわった」理由を説明（記述）、問四:鶴吉がイザベラの書くものを受け入れられない理由を説明（記述）、問五:イザベラが書こうとする「真実」について説明（記述）</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CU2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>年度</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>分析日</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>総文字数</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>大問数</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>総設問数</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_ジャンル</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_テーマ</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_著者</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_作品</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_出版社</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_文字数</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_設問数</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_内容概要</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_設問詳細</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_出題形式</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>大問1_特殊要素</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_ジャンル</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_テーマ</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_著者</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_作品</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_出版社</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_文字数</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_設問数</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_内容概要</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_設問詳細</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_出題形式</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>大問2_特殊要素</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_ジャンル</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_テーマ</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_著者</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_作品</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_出版社</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_文字数</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_設問数</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_内容概要</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_設問詳細</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_出題形式</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>大問3_特殊要素</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_ジャンル</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_テーマ</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_著者</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_作品</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_出版社</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_文字数</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_設問数</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_内容概要</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_設問詳細</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_出題形式</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>大問4_特殊要素</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_ジャンル</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_テーマ</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_著者</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_作品</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_出版社</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_文字数</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_設問数</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_内容概要</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_設問詳細</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_出題形式</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>大問5_特殊要素</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_ジャンル</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_テーマ</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_著者</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_作品</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_出版社</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_文字数</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_設問数</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_内容概要</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_設問詳細</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_出題形式</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>大問6_特殊要素</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>記述_問題数</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>記述_字数指定あり</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>記述_字数指定なし</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>選択_問題数</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>選択_3択</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>選択_4択</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>選択_5択</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>選択_6択</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>選択_複数選択</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>抜き出し_問題数</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>漢字_問題数</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>語句_問題数</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>文法_問題数</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>脱文挿入_問題数</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>並び替え_問題数</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>空欄補充_問題数</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>要約_問題数</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>作文_問題数</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>その他_問題数</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>記述_最大字数</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>記述_最小字数</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>選択肢_最大数</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>図表_使用有無</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>詩歌_有無</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>出題傾向</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>特記事項</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>OCRファイル名</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-08-06 19:21:57</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>小説・物語</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>人間関係・成長／友情と価値観</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>高瀬隼子</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>お小遣いの成果</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>小学6年生のあゆみが、限られたお小遣いの中で好きなライトノベルを買うか友人関係のためファッション誌を買うか葛藤する。近所の田所さん（友人園葉の祖母）から園葉の善行を伝えたお礼にお小遣いをもらい、それで念願の本を買う。その後、私立中学に進学する園葉との友情を再確認する物語。</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>問一:カタカナ→漢字、問二〜四:心情理解（5択）、問五:心情変化（記述61-70字）、問六:心情理解（5択）、問七:解釈の誤り（6択から2つ）</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>論説文</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>社会・文化／多様性と公正</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>朱喜哲</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>〈公正〉を乗りこなす　正義の反対は別の正義か</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>7000</v>
+      </c>
+      <c r="W2" t="n">
+        <v>8</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>「インターセクショナリティ（交差性）」という概念を用いて、社会における様々な属性（人種、性別、階級等）の軸が交差する中での多様性と公正について論じる。マイノリティとマジョリティの関係性、複合差別の問題、コミュニケーションにおける配慮の必要性を説明。</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>問一:カタカナ→漢字、問二:用語説明、問三:条件説明（5択）、問四:効果説明（記述51-60字）、問五:理由説明（5択）、問六:概念説明（5択）、問七:必要事項説明、問八:内容理解（5択）</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="n">
+        <v>70</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>51</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>6</v>
+      </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>文学的文章（小説）と論理的文章（論説文）のバランス型。選択問題中心（60%）で5択が標準。現代的テーマ（多様性、友情、価値観）を扱う。</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>2025年度渋谷教育学園渋谷中学校入試問題。長文読解重視（各大問7,000〜8,000字）。</t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>25渋渋.txt</t>
+        </is>
+      </c>
+      <c r="CU2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>